--- a/examples/tables/artifact/script/Divs.xlsx
+++ b/examples/tables/artifact/script/Divs.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/tables/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8434B8CC-AF3C-9F41-BDE6-9E2A67484797}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8434B8CC-AF3C-9F41-BDE6-9E2A67484797}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10980" windowWidth="51200" windowHeight="21020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10980" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1833,12 +1833,16 @@
 ORDER BY CAST(Progress AS INTEGER) DESC
 LIMIT 1;</t>
   </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1915,8 +1919,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1935,8 +2040,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1974,148 +2232,522 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="53">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2179,7 +2811,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2204,10 +2836,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2242,7 +2874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2277,7 +2909,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2371,21 +3003,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2402,7 +3034,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2454,26 +3086,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE134"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2565,7 +3197,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>367</v>
       </c>
@@ -2657,7 +3289,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>451</v>
       </c>
@@ -2743,7 +3375,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>472</v>
       </c>
@@ -2826,7 +3458,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2900,7 +3532,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2968,7 +3600,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3030,7 +3662,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3086,7 +3718,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3133,7 +3765,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>344</v>
       </c>
@@ -3174,7 +3806,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3212,7 +3844,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>330</v>
       </c>
@@ -3250,7 +3882,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3285,7 +3917,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>503</v>
       </c>
@@ -3320,7 +3952,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>473</v>
       </c>
@@ -3352,7 +3984,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -3384,7 +4016,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -3410,7 +4042,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>236</v>
       </c>
@@ -3433,7 +4065,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -3453,7 +4085,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>392</v>
       </c>
@@ -3473,7 +4105,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>408</v>
       </c>
@@ -3493,7 +4125,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>409</v>
       </c>
@@ -3513,7 +4145,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>353</v>
       </c>
@@ -3533,7 +4165,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>393</v>
       </c>
@@ -3553,7 +4185,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -3573,7 +4205,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -3593,7 +4225,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -3613,7 +4245,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -3630,7 +4262,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>410</v>
       </c>
@@ -3647,7 +4279,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>224</v>
       </c>
@@ -3661,7 +4293,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="E31" t="s">
         <v>412</v>
       </c>
@@ -3672,7 +4304,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>63</v>
       </c>
@@ -3683,7 +4315,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>64</v>
       </c>
@@ -3694,7 +4326,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>65</v>
       </c>
@@ -3705,7 +4337,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="35" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>66</v>
       </c>
@@ -3716,7 +4348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>67</v>
       </c>
@@ -3727,7 +4359,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>68</v>
       </c>
@@ -3738,7 +4370,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>69</v>
       </c>
@@ -3749,7 +4381,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>70</v>
       </c>
@@ -3760,7 +4392,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>264</v>
       </c>
@@ -3768,7 +4400,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>77</v>
       </c>
@@ -3776,7 +4408,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="42" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
         <v>209</v>
       </c>
@@ -3784,7 +4416,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="G43" t="s">
         <v>535</v>
       </c>
@@ -3792,7 +4424,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="G44" t="s">
         <v>286</v>
       </c>
@@ -3800,7 +4432,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="G45" t="s">
         <v>297</v>
       </c>
@@ -3808,7 +4440,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="G46" t="s">
         <v>298</v>
       </c>
@@ -3816,7 +4448,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="G47" t="s">
         <v>340</v>
       </c>
@@ -3824,7 +4456,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="G48" t="s">
         <v>339</v>
       </c>
@@ -3832,7 +4464,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="G49" t="s">
         <v>208</v>
       </c>
@@ -3840,7 +4472,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="G50" t="s">
         <v>317</v>
       </c>
@@ -3848,7 +4480,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="G51" t="s">
         <v>336</v>
       </c>
@@ -3856,7 +4488,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="G52" t="s">
         <v>364</v>
       </c>
@@ -3864,7 +4496,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="53" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="G53" t="s">
         <v>299</v>
       </c>
@@ -3872,7 +4504,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="G54" t="s">
         <v>352</v>
       </c>
@@ -3880,7 +4512,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="G55" t="s">
         <v>328</v>
       </c>
@@ -3888,7 +4520,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="G56" t="s">
         <v>265</v>
       </c>
@@ -3896,7 +4528,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="57" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="G57" t="s">
         <v>289</v>
       </c>
@@ -3904,7 +4536,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="G58" t="s">
         <v>290</v>
       </c>
@@ -3912,7 +4544,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="G59" t="s">
         <v>536</v>
       </c>
@@ -3920,7 +4552,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="60" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="G60" t="s">
         <v>291</v>
       </c>
@@ -3928,7 +4560,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="G61" t="s">
         <v>300</v>
       </c>
@@ -3936,7 +4568,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="G62" t="s">
         <v>309</v>
       </c>
@@ -3944,7 +4576,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="G63" t="s">
         <v>334</v>
       </c>
@@ -3952,7 +4584,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="G64" t="s">
         <v>306</v>
       </c>
@@ -3960,7 +4592,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="G65" t="s">
         <v>307</v>
       </c>
@@ -3968,7 +4600,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="G66" t="s">
         <v>365</v>
       </c>
@@ -3976,7 +4608,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="G67" t="s">
         <v>366</v>
       </c>
@@ -3984,7 +4616,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="G68" t="s">
         <v>342</v>
       </c>
@@ -3992,7 +4624,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="69" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="G69" t="s">
         <v>310</v>
       </c>
@@ -4000,7 +4632,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="G70" t="s">
         <v>266</v>
       </c>
@@ -4008,7 +4640,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="G71" t="s">
         <v>521</v>
       </c>
@@ -4016,7 +4648,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="72" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="G72" t="s">
         <v>311</v>
       </c>
@@ -4024,7 +4656,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="G73" t="s">
         <v>406</v>
       </c>
@@ -4032,7 +4664,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="G74" t="s">
         <v>301</v>
       </c>
@@ -4040,7 +4672,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="G75" t="s">
         <v>407</v>
       </c>
@@ -4048,7 +4680,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="G76" t="s">
         <v>259</v>
       </c>
@@ -4056,7 +4688,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="G77" t="s">
         <v>506</v>
       </c>
@@ -4064,7 +4696,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="G78" t="s">
         <v>341</v>
       </c>
@@ -4072,7 +4704,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="G79" t="s">
         <v>277</v>
       </c>
@@ -4080,7 +4712,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="80" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="G80" t="s">
         <v>283</v>
       </c>
@@ -4088,7 +4720,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="81" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="G81" t="s">
         <v>288</v>
       </c>
@@ -4096,7 +4728,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="G82" t="s">
         <v>425</v>
       </c>
@@ -4104,7 +4736,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="G83" t="s">
         <v>329</v>
       </c>
@@ -4112,7 +4744,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="G84" t="s">
         <v>267</v>
       </c>
@@ -4120,7 +4752,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="85" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="G85" t="s">
         <v>278</v>
       </c>
@@ -4128,7 +4760,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="G86" t="s">
         <v>284</v>
       </c>
@@ -4136,7 +4768,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="G87" t="s">
         <v>273</v>
       </c>
@@ -4144,7 +4776,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="G88" t="s">
         <v>524</v>
       </c>
@@ -4152,7 +4784,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="89" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="G89" t="s">
         <v>268</v>
       </c>
@@ -4160,7 +4792,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="G90" t="s">
         <v>285</v>
       </c>
@@ -4168,7 +4800,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="91" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="G91" t="s">
         <v>269</v>
       </c>
@@ -4176,7 +4808,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="G92" t="s">
         <v>270</v>
       </c>
@@ -4184,7 +4816,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="G93" t="s">
         <v>302</v>
       </c>
@@ -4192,256 +4824,261 @@
         <v>542</v>
       </c>
     </row>
-    <row r="94" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="G94" t="s">
         <v>308</v>
       </c>
       <c r="Y94" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="95" spans="7:25" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="G95" t="s">
         <v>292</v>
       </c>
       <c r="Y95" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="7:25" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="G96" t="s">
         <v>337</v>
       </c>
       <c r="Y96" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="7:25" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="G97" t="s">
         <v>274</v>
       </c>
       <c r="Y97" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="98" spans="7:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="G98" t="s">
         <v>275</v>
       </c>
       <c r="Y98" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Y99" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="99" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y99" t="s">
+    <row r="100">
+      <c r="Y100" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y100" t="s">
+    <row r="101">
+      <c r="Y101" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y101" t="s">
+    <row r="102">
+      <c r="Y102" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="102" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y102" t="s">
+    <row r="103">
+      <c r="Y103" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y103" t="s">
+    <row r="104">
+      <c r="Y104" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="104" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y104" t="s">
+    <row r="105">
+      <c r="Y105" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y105" t="s">
+    <row r="106">
+      <c r="Y106" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="106" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y106" t="s">
+    <row r="107">
+      <c r="Y107" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="107" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y107" t="s">
+    <row r="108">
+      <c r="Y108" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Y109" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="109" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Y110" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="110" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Y111" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Y112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Y113" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Y114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Y115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Y116" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Y117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Y118" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Y119" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Y120" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Y121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Y122" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Y123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Y124" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="124" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Y125" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Y126" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="126" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Y127" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Y128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="128" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Y129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Y130" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Y131" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Y132" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Y133" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Y134" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P299"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="60.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="72.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="41.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="50.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="60.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="51.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="10" width="23.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="72.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="10" width="23.83203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4472,7 +5109,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>543</v>
       </c>
@@ -4493,7 +5130,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4510,7 +5147,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
@@ -4555,7 +5192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>544</v>
       </c>
@@ -4582,7 +5219,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>545</v>
@@ -4607,7 +5244,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4630,7 +5267,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>546</v>
       </c>
@@ -4665,7 +5302,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>548</v>
@@ -4692,7 +5329,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>550</v>
       </c>
@@ -4721,7 +5358,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>553</v>
@@ -4750,7 +5387,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row ht="208" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>556</v>
       </c>
@@ -4779,7 +5416,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
         <v>559</v>
@@ -4804,7 +5441,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
         <v>576</v>
@@ -4831,7 +5468,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>577</v>
@@ -4858,7 +5495,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
         <v>578</v>
@@ -4885,7 +5522,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>562</v>
       </c>
@@ -4914,7 +5551,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4931,7 +5568,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4948,7 +5585,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4965,7 +5602,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4982,7 +5619,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4999,7 +5636,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -5016,7 +5653,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -5033,7 +5670,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5050,7 +5687,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5067,7 +5704,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="8"/>
       <c r="C27" s="13"/>
@@ -5084,7 +5721,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -5101,7 +5738,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5118,7 +5755,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5135,7 +5772,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5152,7 +5789,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5169,7 +5806,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5186,7 +5823,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5203,7 +5840,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5220,7 +5857,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5237,7 +5874,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5254,7 +5891,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5271,7 +5908,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5288,7 +5925,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5305,7 +5942,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5322,7 +5959,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5339,7 +5976,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5356,7 +5993,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5373,7 +6010,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5390,7 +6027,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5407,7 +6044,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5424,7 +6061,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5441,7 +6078,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5458,7 +6095,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5475,7 +6112,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5492,7 +6129,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5509,7 +6146,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5526,7 +6163,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5543,7 +6180,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5560,7 +6197,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5577,7 +6214,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5594,7 +6231,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5611,7 +6248,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5628,7 +6265,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5645,7 +6282,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5662,7 +6299,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5679,7 +6316,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5696,7 +6333,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5713,7 +6350,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5730,7 +6367,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5747,7 +6384,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5764,7 +6401,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5781,7 +6418,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5798,7 +6435,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5815,7 +6452,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5832,7 +6469,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5849,7 +6486,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5866,7 +6503,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5883,7 +6520,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5900,7 +6537,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5917,7 +6554,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5934,7 +6571,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5951,7 +6588,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5968,7 +6605,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5985,7 +6622,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -6002,7 +6639,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -6019,7 +6656,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -6036,7 +6673,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -6053,7 +6690,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6070,7 +6707,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6087,7 +6724,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6104,7 +6741,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6121,7 +6758,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6138,7 +6775,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6155,7 +6792,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6172,7 +6809,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6189,7 +6826,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6206,7 +6843,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6223,7 +6860,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6240,7 +6877,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6257,7 +6894,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6274,7 +6911,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6291,7 +6928,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6308,7 +6945,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6325,7 +6962,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -6342,7 +6979,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -6359,7 +6996,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -6376,7 +7013,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -6393,7 +7030,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -6410,7 +7047,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -6427,7 +7064,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -6444,7 +7081,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6461,7 +7098,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6478,7 +7115,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6495,7 +7132,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6512,7 +7149,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6529,7 +7166,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6546,7 +7183,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6563,7 +7200,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6580,7 +7217,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6597,7 +7234,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6614,7 +7251,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6631,7 +7268,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6648,7 +7285,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6665,7 +7302,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6682,7 +7319,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6699,7 +7336,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6716,7 +7353,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6733,7 +7370,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6750,7 +7387,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6767,7 +7404,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6784,7 +7421,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6801,7 +7438,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6818,7 +7455,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6835,7 +7472,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6852,7 +7489,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6869,7 +7506,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6886,7 +7523,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6903,7 +7540,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6920,7 +7557,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6937,7 +7574,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6954,7 +7591,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6971,7 +7608,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6988,7 +7625,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -7005,7 +7642,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -7022,7 +7659,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -7039,7 +7676,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -7056,7 +7693,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -7073,7 +7710,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -7090,7 +7727,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -7107,7 +7744,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -7124,7 +7761,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -7141,7 +7778,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -7158,7 +7795,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -7175,7 +7812,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -7192,7 +7829,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -7209,7 +7846,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -7226,7 +7863,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -7243,7 +7880,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -7260,7 +7897,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -7277,7 +7914,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -7294,7 +7931,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -7311,7 +7948,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -7328,7 +7965,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -7345,7 +7982,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -7362,7 +7999,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -7379,7 +8016,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -7396,7 +8033,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -7413,7 +8050,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -7430,7 +8067,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -7447,7 +8084,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7464,7 +8101,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7481,7 +8118,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7498,7 +8135,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7515,7 +8152,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7532,7 +8169,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7549,7 +8186,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7566,7 +8203,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7583,7 +8220,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7600,7 +8237,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7617,7 +8254,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7634,7 +8271,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7651,7 +8288,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7668,7 +8305,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7685,7 +8322,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7702,7 +8339,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7719,7 +8356,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7736,7 +8373,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7753,7 +8390,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7770,7 +8407,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7787,7 +8424,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7804,7 +8441,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7821,7 +8458,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7838,7 +8475,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7855,7 +8492,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7872,7 +8509,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7889,7 +8526,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7906,7 +8543,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7923,7 +8560,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7940,7 +8577,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7957,7 +8594,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7974,7 +8611,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7991,7 +8628,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -8008,7 +8645,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -8025,7 +8662,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -8042,7 +8679,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -8059,7 +8696,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -8076,7 +8713,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -8093,7 +8730,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -8110,7 +8747,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -8127,7 +8764,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -8144,7 +8781,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -8161,7 +8798,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -8178,7 +8815,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -8195,7 +8832,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -8212,7 +8849,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -8229,7 +8866,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -8246,7 +8883,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -8263,7 +8900,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -8280,7 +8917,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -8297,7 +8934,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -8314,7 +8951,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -8331,7 +8968,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -8348,7 +8985,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -8365,7 +9002,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -8382,7 +9019,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -8399,7 +9036,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -8416,7 +9053,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -8433,7 +9070,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -8450,7 +9087,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8467,7 +9104,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8484,7 +9121,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8501,7 +9138,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8518,7 +9155,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8535,7 +9172,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8552,7 +9189,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8569,7 +9206,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8586,7 +9223,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8603,7 +9240,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8620,7 +9257,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8637,7 +9274,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8654,7 +9291,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8671,7 +9308,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8688,7 +9325,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8705,7 +9342,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8722,7 +9359,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8739,7 +9376,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8756,7 +9393,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8773,7 +9410,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8790,7 +9427,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8807,7 +9444,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8824,7 +9461,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8841,7 +9478,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8858,7 +9495,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8875,7 +9512,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8892,7 +9529,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8909,7 +9546,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8926,7 +9563,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8943,7 +9580,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8960,7 +9597,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8977,7 +9614,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8994,7 +9631,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -9011,7 +9648,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -9028,7 +9665,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -9045,7 +9682,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -9062,7 +9699,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -9079,7 +9716,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -9096,7 +9733,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -9113,7 +9750,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -9130,7 +9767,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -9147,7 +9784,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -9164,7 +9801,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -9181,7 +9818,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -9198,7 +9835,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -9215,7 +9852,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -9232,7 +9869,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -9249,7 +9886,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -9266,7 +9903,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -9283,7 +9920,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -9300,7 +9937,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -9317,7 +9954,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -9334,7 +9971,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -9351,7 +9988,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -9368,7 +10005,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -9385,7 +10022,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -9402,7 +10039,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -9419,7 +10056,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -9436,7 +10073,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -9453,7 +10090,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9470,7 +10107,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9487,7 +10124,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9504,7 +10141,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9521,7 +10158,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9538,7 +10175,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9555,7 +10192,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9572,7 +10209,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9589,7 +10226,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9606,7 +10243,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9623,7 +10260,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9640,7 +10277,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9657,7 +10294,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9674,7 +10311,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9691,7 +10328,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9709,7 +10346,7 @@
       <c r="O299" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -9717,35 +10354,35 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N300:N1048576 N3:N99">
-    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N100:N299">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N100,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N100,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N100,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C299" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C299" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D299" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D299" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/examples/tables/artifact/script/Divs.xlsx
+++ b/examples/tables/artifact/script/Divs.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{8434B8CC-AF3C-9F41-BDE6-9E2A67484797}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10980" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10980"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -20,39 +20,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1836,13 +1837,31 @@
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2020,8 +2039,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2193,8 +2414,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -2558,6 +3085,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2565,7 +3744,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2694,52 +3873,148 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3094,9 +4369,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3119,81 +4394,84 @@
         <v>472</v>
       </c>
       <c r="E1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>344</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>330</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>503</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>473</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>193</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>236</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>392</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>408</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>409</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>353</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>393</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>410</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3211,81 +4489,84 @@
         <v>474</v>
       </c>
       <c r="E2" t="s">
+        <v>585</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>446</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>457</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>312</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>380</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>431</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>507</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>484</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>413</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>426</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>250</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>214</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>394</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>415</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>416</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>377</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>403</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>95</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>173</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>180</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>428</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -3302,76 +4583,76 @@
       <c r="D3" t="s">
         <v>504</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>454</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>361</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>479</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>346</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>338</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>331</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>508</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>485</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>427</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>237</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>215</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>395</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>417</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>378</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>404</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>96</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>169</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>174</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>360</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>181</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3385,82 +4666,82 @@
       <c r="D4" t="s">
         <v>475</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>383</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>447</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>480</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>347</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>235</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>332</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>509</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>486</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>238</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>216</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>396</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>418</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>354</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>405</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>350</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>170</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>175</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>181</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>420</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>584</v>
       </c>
       <c r="B5" t="s">
         <v>371</v>
@@ -3468,73 +4749,73 @@
       <c r="D5" t="s">
         <v>476</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>455</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>429</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>541</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>456</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>522</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>348</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>458</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>510</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>239</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>217</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>397</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>419</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>355</v>
       </c>
-      <c r="Y5" t="s">
-        <v>351</v>
-      </c>
       <c r="Z5" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA5" t="s">
         <v>171</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>176</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>182</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>421</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>372</v>
@@ -3542,1505 +4823,1513 @@
       <c r="D6" t="s">
         <v>477</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>478</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>333</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>444</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>345</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>71</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>511</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>240</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>387</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>398</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>357</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>97</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>441</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>177</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>183</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>422</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>373</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>221</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>384</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>443</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>531</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>312</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>512</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>241</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>414</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>399</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>356</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>98</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>442</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>178</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>184</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>423</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>374</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>315</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>362</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>325</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>481</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>513</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>90</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>242</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>400</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>358</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>99</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>172</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>179</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>185</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>424</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>375</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>363</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>326</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>79</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>514</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>91</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>243</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>401</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>359</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>206</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>186</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>344</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>312</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>303</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>448</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>515</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>433</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>244</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>402</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>254</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>187</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" t="s">
+        <v>587</v>
+      </c>
+      <c r="H11" t="s">
         <v>349</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>319</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>482</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>467</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>516</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>92</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>245</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>255</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>256</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>330</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>316</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>271</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>320</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>386</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>533</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>517</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>246</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>100</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>188</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" t="s">
         <v>338</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>260</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>321</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>432</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>93</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>251</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>323</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>189</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>503</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>313</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>322</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>468</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>94</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>247</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>101</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>190</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>473</v>
-      </c>
-      <c r="E15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>261</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>483</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>487</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>248</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>102</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>191</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" t="s">
         <v>381</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>262</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>80</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>537</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>488</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>249</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>192</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" t="s">
         <v>382</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>314</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>81</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>489</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>463</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
         <v>411</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>88</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>459</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>103</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" t="s">
         <v>59</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>89</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>82</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>104</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>392</v>
-      </c>
-      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>293</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>105</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E21" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" t="s">
         <v>253</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>294</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>376</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>106</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>409</v>
-      </c>
-      <c r="E22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F22" t="s">
         <v>534</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>295</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>466</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>490</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>353</v>
-      </c>
-      <c r="E23" t="s">
+        <v>409</v>
+      </c>
+      <c r="F23" t="s">
         <v>61</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>296</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>107</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>393</v>
-      </c>
-      <c r="E24" t="s">
+        <v>353</v>
+      </c>
+      <c r="F24" t="s">
         <v>318</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>287</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>388</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>538</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
+        <v>393</v>
+      </c>
+      <c r="F25" t="s">
         <v>62</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>276</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>520</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>108</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
         <v>445</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>75</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>84</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>109</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
         <v>222</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>279</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>430</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>110</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
         <v>223</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>263</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>410</v>
-      </c>
-      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>464</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>280</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>410</v>
+      </c>
+      <c r="F30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H30" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>224</v>
       </c>
-      <c r="E30" t="s">
-        <v>465</v>
-      </c>
-      <c r="G30" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>412</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>213</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>272</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>64</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>282</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>65</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>505</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>257</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>327</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>68</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>304</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>69</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>258</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="Y41" t="s">
-        <v>523</v>
+      <c r="Z41" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>209</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>535</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>364</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>352</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>536</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>365</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>366</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>521</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>406</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>407</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>506</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>425</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>524</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>167</v>
       </c>
     </row>

--- a/examples/tables/artifact/script/Divs.xlsx
+++ b/examples/tables/artifact/script/Divs.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="595">
   <si>
     <t>description</t>
   </si>
@@ -1855,13 +1855,28 @@
   <si>
     <t>assertTextNotContain(locator,text)</t>
   </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2241,8 +2256,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2720,8 +2937,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -3737,6 +4260,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3744,7 +4919,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3969,52 +5144,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4685,7 +5956,7 @@
         <v>347</v>
       </c>
       <c r="L4" t="s">
-        <v>235</v>
+        <v>593</v>
       </c>
       <c r="M4" t="s">
         <v>332</v>
@@ -4721,7 +5992,7 @@
         <v>405</v>
       </c>
       <c r="Z4" t="s">
-        <v>350</v>
+        <v>594</v>
       </c>
       <c r="AA4" t="s">
         <v>170</v>
@@ -4768,7 +6039,7 @@
         <v>348</v>
       </c>
       <c r="L5" t="s">
-        <v>458</v>
+        <v>235</v>
       </c>
       <c r="N5" t="s">
         <v>86</v>
@@ -4839,7 +6110,7 @@
         <v>345</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>458</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -4901,7 +6172,7 @@
         <v>531</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
         <v>312</v>
@@ -4960,7 +6231,7 @@
         <v>325</v>
       </c>
       <c r="L8" t="s">
-        <v>481</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -5016,7 +6287,7 @@
         <v>326</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -5060,7 +6331,7 @@
         <v>448</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -5101,7 +6372,7 @@
         <v>319</v>
       </c>
       <c r="L11" t="s">
-        <v>482</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>467</v>
@@ -5139,7 +6410,7 @@
         <v>320</v>
       </c>
       <c r="L12" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="N12" t="s">
         <v>533</v>
@@ -5177,7 +6448,7 @@
         <v>321</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="N13" t="s">
         <v>432</v>
@@ -5212,7 +6483,7 @@
         <v>322</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>468</v>
@@ -5244,7 +6515,7 @@
         <v>261</v>
       </c>
       <c r="L15" t="s">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -5276,7 +6547,7 @@
         <v>262</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="N16" t="s">
         <v>537</v>
@@ -5308,7 +6579,7 @@
         <v>314</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -5334,7 +6605,7 @@
         <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -5351,13 +6622,13 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>592</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="Z19" t="s">
         <v>104</v>
@@ -5371,13 +6642,13 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s">
         <v>105</v>
@@ -5391,13 +6662,13 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="Z21" t="s">
         <v>106</v>
@@ -5411,13 +6682,13 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>534</v>
+        <v>253</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>466</v>
+        <v>591</v>
       </c>
       <c r="Z22" t="s">
         <v>490</v>
@@ -5431,13 +6702,13 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>534</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="Z23" t="s">
         <v>107</v>
@@ -5451,13 +6722,13 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>388</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>538</v>
@@ -5471,13 +6742,13 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>520</v>
+        <v>388</v>
       </c>
       <c r="Z25" t="s">
         <v>108</v>
@@ -5491,13 +6762,13 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>445</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>520</v>
       </c>
       <c r="Z26" t="s">
         <v>109</v>
@@ -5511,13 +6782,13 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>430</v>
+        <v>84</v>
       </c>
       <c r="Z27" t="s">
         <v>110</v>
@@ -5531,13 +6802,13 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="Z28" t="s">
         <v>111</v>
@@ -5548,13 +6819,13 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>464</v>
+        <v>223</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>324</v>
@@ -5565,10 +6836,13 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>112</v>
@@ -5579,7 +6853,7 @@
         <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -5590,7 +6864,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
@@ -5601,7 +6875,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
@@ -5612,7 +6886,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
@@ -5623,7 +6897,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
@@ -5634,7 +6908,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -5645,7 +6919,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
@@ -5656,7 +6930,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
@@ -5667,7 +6941,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
@@ -5677,6 +6951,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>

--- a/examples/tables/artifact/script/Divs.xlsx
+++ b/examples/tables/artifact/script/Divs.xlsx
@@ -20,13 +20,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1870,13 +1870,22 @@
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2458,8 +2467,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3243,8 +3353,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -4912,6 +5175,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4919,7 +5508,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5240,52 +5829,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5640,7 +6277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6106,6 +6743,9 @@
       <c r="I6" t="s">
         <v>444</v>
       </c>
+      <c r="J6" t="s">
+        <v>595</v>
+      </c>
       <c r="K6" t="s">
         <v>345</v>
       </c>
@@ -6622,7 +7262,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>592</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -6642,7 +7282,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -6662,7 +7302,7 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -6682,7 +7322,7 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>534</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -6702,7 +7342,7 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>534</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -6722,7 +7362,7 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -6742,7 +7382,7 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -6762,7 +7402,7 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>445</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -6782,7 +7422,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
@@ -6802,7 +7442,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
@@ -6819,7 +7459,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>464</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
@@ -6836,7 +7476,7 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
@@ -6853,7 +7493,7 @@
         <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -6864,7 +7504,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>412</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
@@ -6875,7 +7515,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
@@ -6886,7 +7526,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
@@ -6897,7 +7537,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
@@ -6908,7 +7548,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -6919,7 +7559,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
@@ -6930,7 +7570,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
@@ -6941,7 +7581,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
@@ -6951,9 +7591,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
@@ -7427,186 +8064,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>439</v>
+        <v>596</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>201</v>
+        <v>597</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>202</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>494</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>586</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>146</v>
+        <v>586</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>379</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>147</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>148</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>440</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>540</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>162</v>
+        <v>540</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>167</v>
       </c>
     </row>

--- a/examples/tables/artifact/script/Divs.xlsx
+++ b/examples/tables/artifact/script/Divs.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1885,7 +1885,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2568,8 +2568,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3506,8 +3607,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="195">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5501,6 +5755,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5508,7 +6088,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="149">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5877,52 +6457,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="141" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="144" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="147" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="150" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="156" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="147" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/tables/artifact/script/Divs.xlsx
+++ b/examples/tables/artifact/script/Divs.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5147" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1885,7 +1885,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2669,8 +2669,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3760,8 +3861,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -6081,6 +6335,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6088,7 +6668,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="165">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6505,52 +7085,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="168" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="171" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="174" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="177" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="183" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="174" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="195" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="198" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="201" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="204" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="210" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="201" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
